--- a/data/trans_dic/P1429-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01340632487579332</v>
+        <v>0.01269501742071782</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002300987192052507</v>
+        <v>0.002113991923643596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01262937775866323</v>
+        <v>0.01222925668471775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06356945361190192</v>
+        <v>0.06216371996382452</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06765945855220494</v>
+        <v>0.06851233948919681</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05219167184298964</v>
+        <v>0.05192054154817697</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09969482117399314</v>
+        <v>0.1005131169769004</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04285450961042269</v>
+        <v>0.04324780872415836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03979304936472348</v>
+        <v>0.04056850348100535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03205265157700885</v>
+        <v>0.03241860836157893</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06654150167433255</v>
+        <v>0.06597437102231364</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03009928354644062</v>
+        <v>0.03016903494095641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01418830929076274</v>
+        <v>0.01328066477712543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01553236829360957</v>
+        <v>0.0140957141386118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03345014317615373</v>
+        <v>0.03248879105504408</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09101139404183449</v>
+        <v>0.09099902269948046</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09878392497780571</v>
+        <v>0.1003431814674753</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08733935896427043</v>
+        <v>0.08618810328271259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1331191911844922</v>
+        <v>0.1343089684836886</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06166587574255278</v>
+        <v>0.06252328390955184</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05903160904990434</v>
+        <v>0.05859755573665315</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0524546967919855</v>
+        <v>0.05213776550137107</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08823468341042558</v>
+        <v>0.0878490402592831</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002804159729321718</v>
+        <v>0.002702659023812401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0004992178538448691</v>
+        <v>0.0004975727378441274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.000803627586851293</v>
+        <v>0.0008758108430862341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003538073478307592</v>
+        <v>0.003509227496992192</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01654677250180047</v>
+        <v>0.01682009510832332</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008928191209112819</v>
+        <v>0.00939350459149132</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01626363549759824</v>
+        <v>0.01670301962918072</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02321503545240516</v>
+        <v>0.02326494029361186</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01057034611089613</v>
+        <v>0.0106887792402252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00498622665929147</v>
+        <v>0.005001145945356084</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009068703067396508</v>
+        <v>0.009197820267227676</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01426588038121352</v>
+        <v>0.01389743223628823</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0108980887774114</v>
+        <v>0.01145587947153415</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.004163478759867803</v>
+        <v>0.004107246057121818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005353266159588701</v>
+        <v>0.004992837787465238</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01334930502456948</v>
+        <v>0.01348920961985676</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03335781865383605</v>
+        <v>0.03175219739070705</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02077851736823538</v>
+        <v>0.02145275152747548</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03003885174132648</v>
+        <v>0.03015736683563588</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03513234873740569</v>
+        <v>0.03544935661395497</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01931105962403809</v>
+        <v>0.01902913998604436</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01086168061733776</v>
+        <v>0.01093513568161952</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01605858453744454</v>
+        <v>0.01640547117696856</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02126312284749646</v>
+        <v>0.02129414623429509</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001500978120614412</v>
+        <v>0.001512626980201386</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0009348545100698556</v>
+        <v>0.001210113216919096</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005756877377926276</v>
+        <v>0.005906797865863455</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007641964894322743</v>
+        <v>0.008227492953522901</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009021210716847956</v>
+        <v>0.007798101979969244</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01922062790223796</v>
+        <v>0.01886284200721295</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005361905174296607</v>
+        <v>0.004651903608555003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003827816470849633</v>
+        <v>0.004066184736380769</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005666252709776011</v>
+        <v>0.005750536338314106</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01125098800217095</v>
+        <v>0.01090021905400852</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0170519026589085</v>
+        <v>0.01645968228037158</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01319632481817772</v>
+        <v>0.01440999434158204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.008817122543930325</v>
+        <v>0.009474128834332149</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02597686264960759</v>
+        <v>0.02917664423580271</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03777715899895095</v>
+        <v>0.03733132448327919</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03514126279119516</v>
+        <v>0.03365172972650825</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03777694111638508</v>
+        <v>0.03796608878128639</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01750550252018004</v>
+        <v>0.01744063821626304</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01836050057078391</v>
+        <v>0.01917442150068186</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01930672143083664</v>
+        <v>0.019816313666955</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02086768430451908</v>
+        <v>0.0211282669941932</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0006063541048958346</v>
+        <v>0.0005969104623994382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001789885335149207</v>
+        <v>0.001857327167471396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00582896795353576</v>
+        <v>0.005799940863122925</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03374319082584607</v>
+        <v>0.03343737558424013</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02883316974850119</v>
+        <v>0.02841648853247689</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04210418528405906</v>
+        <v>0.04236960891576912</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01782763908285791</v>
+        <v>0.01801841471943044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01575222275365155</v>
+        <v>0.01595002575355816</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02509896768394219</v>
+        <v>0.02545184273656399</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0047070447516867</v>
+        <v>0.004448407183547615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00602615473740148</v>
+        <v>0.006116147716645827</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01301576534788312</v>
+        <v>0.01280329868170827</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04755513211530665</v>
+        <v>0.0470277805139289</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04200731829523355</v>
+        <v>0.04197075807255209</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05328642480997944</v>
+        <v>0.0523102349541574</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02495736525889904</v>
+        <v>0.02513530582058925</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02307291090511579</v>
+        <v>0.02300781376969042</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03188760865397717</v>
+        <v>0.03204244711090786</v>
       </c>
     </row>
     <row r="16">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13832</v>
+        <v>13098</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1736</v>
+        <v>1595</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7244</v>
+        <v>7014</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>83601</v>
+        <v>81752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90440</v>
+        <v>91580</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>51913</v>
+        <v>51643</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>81425</v>
+        <v>82093</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100572</v>
+        <v>101495</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>91935</v>
+        <v>93727</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56060</v>
+        <v>56700</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>92513</v>
+        <v>91724</v>
       </c>
     </row>
     <row r="7">
@@ -1503,40 +1503,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31054</v>
+        <v>31126</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13814</v>
+        <v>12931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11717</v>
+        <v>10633</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19186</v>
+        <v>18634</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>119690</v>
+        <v>119674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>132043</v>
+        <v>134128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>86873</v>
+        <v>85728</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>108724</v>
+        <v>109696</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>144720</v>
+        <v>146732</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>136382</v>
+        <v>135380</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>91744</v>
+        <v>91189</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>122673</v>
+        <v>122137</v>
       </c>
     </row>
     <row r="8">
@@ -1639,40 +1639,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4749</v>
+        <v>4577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1669</v>
+        <v>1819</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7887</v>
+        <v>7823</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26271</v>
+        <v>26705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15665</v>
+        <v>16482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32337</v>
+        <v>33211</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50248</v>
+        <v>50356</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34682</v>
+        <v>35071</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18542</v>
+        <v>18597</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>36861</v>
+        <v>37386</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>62679</v>
+        <v>61061</v>
       </c>
     </row>
     <row r="11">
@@ -1683,40 +1683,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18455</v>
+        <v>19400</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8177</v>
+        <v>8066</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11115</v>
+        <v>10367</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29758</v>
+        <v>30070</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52961</v>
+        <v>50412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36458</v>
+        <v>37641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>59726</v>
+        <v>59962</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>76043</v>
+        <v>76729</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>63361</v>
+        <v>62436</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40390</v>
+        <v>40663</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65273</v>
+        <v>66683</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>93423</v>
+        <v>93559</v>
       </c>
     </row>
     <row r="12">
@@ -1819,38 +1819,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>664</v>
+        <v>860</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2743</v>
+        <v>2814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3505</v>
+        <v>3773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4954</v>
+        <v>4282</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14070</v>
+        <v>13809</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5511</v>
+        <v>4781</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3597</v>
+        <v>3821</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6210</v>
+        <v>6303</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16230</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="15">
@@ -1861,38 +1861,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9403</v>
+        <v>9076</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>7217</v>
+        <v>7881</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6264</v>
+        <v>6731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12376</v>
+        <v>13900</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17326</v>
+        <v>17121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19297</v>
+        <v>18480</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27655</v>
+        <v>27793</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17993</v>
+        <v>17926</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17255</v>
+        <v>18020</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21161</v>
+        <v>21719</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30102</v>
+        <v>30478</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2073</v>
+        <v>2041</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6046</v>
+        <v>6273</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20478</v>
+        <v>20376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>119785</v>
+        <v>118700</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>101842</v>
+        <v>100370</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>156343</v>
+        <v>157329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>124235</v>
+        <v>125565</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>108843</v>
+        <v>110210</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>181377</v>
+        <v>183927</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16092</v>
+        <v>15208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20354</v>
+        <v>20658</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45727</v>
+        <v>44981</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>168816</v>
+        <v>166944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>148374</v>
+        <v>148245</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>197866</v>
+        <v>194241</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>173920</v>
+        <v>175160</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>159427</v>
+        <v>158978</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>230435</v>
+        <v>231554</v>
       </c>
     </row>
     <row r="20">
